--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_21_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_21_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_7</t>
+          <t>model_21_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9297080461232703</v>
+        <v>0.9548609374618142</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7792778424957347</v>
+        <v>0.8088587345063338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9189753626043893</v>
+        <v>0.967952811513213</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9252356609002033</v>
+        <v>0.8183119466703931</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9305255418030147</v>
+        <v>0.9480494184850196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4700426192383786</v>
+        <v>0.3018451190391198</v>
       </c>
       <c r="H2" t="n">
-        <v>1.475970083563105</v>
+        <v>1.278162522480746</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8863975414918694</v>
+        <v>0.4182552833585699</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4040413094511462</v>
+        <v>0.3819925787296896</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6452194325443832</v>
+        <v>0.4001238716411382</v>
       </c>
       <c r="L2" t="n">
-        <v>1.105654000952955</v>
+        <v>1.221239075639003</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6855965426097033</v>
+        <v>0.5494043311069906</v>
       </c>
       <c r="N2" t="n">
-        <v>1.029596612158623</v>
+        <v>1.01900592106871</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7147838068090927</v>
+        <v>0.5727936109059661</v>
       </c>
       <c r="P2" t="n">
-        <v>163.5098638183171</v>
+        <v>164.3956824880482</v>
       </c>
       <c r="Q2" t="n">
-        <v>262.2388056326413</v>
+        <v>263.1246243023724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_6</t>
+          <t>model_21_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9292404359123462</v>
+        <v>0.9545042657241929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7792734283259769</v>
+        <v>0.8083208411693427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9181905510846508</v>
+        <v>0.9676868983126886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9293946063799795</v>
+        <v>0.8233158148050992</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9312733444741222</v>
+        <v>0.9485070854789948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4731695308719746</v>
+        <v>0.3042301845909161</v>
       </c>
       <c r="H3" t="n">
-        <v>1.475999601136601</v>
+        <v>1.281759417701977</v>
       </c>
       <c r="I3" t="n">
-        <v>0.894983263365997</v>
+        <v>0.4217257781596954</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3815655436272593</v>
+        <v>0.3714721264634523</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6382744800016936</v>
+        <v>0.3965989161120278</v>
       </c>
       <c r="L3" t="n">
-        <v>1.107510817315332</v>
+        <v>1.227856083548569</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6878731938896693</v>
+        <v>0.5515706524017717</v>
       </c>
       <c r="N3" t="n">
-        <v>1.029793500668486</v>
+        <v>1.019156098642445</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7171573798473648</v>
+        <v>0.5750521569831695</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4966030769723</v>
+        <v>164.3799413558848</v>
       </c>
       <c r="Q3" t="n">
-        <v>262.2255448912965</v>
+        <v>263.108883170209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_8</t>
+          <t>model_21_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9301384952591988</v>
+        <v>0.954132840743773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7792443473826385</v>
+        <v>0.8077713340642307</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9197502431189428</v>
+        <v>0.9674186184758902</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9209322521239205</v>
+        <v>0.8282501786068288</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9297298490451192</v>
+        <v>0.948953267073594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4671642038843882</v>
+        <v>0.3067139051452383</v>
       </c>
       <c r="H4" t="n">
-        <v>1.47619406553861</v>
+        <v>1.285433974244108</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8779204633446807</v>
+        <v>0.4252271604792641</v>
       </c>
       <c r="J4" t="n">
-        <v>0.427297783567127</v>
+        <v>0.3610978045503122</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6526091473122675</v>
+        <v>0.3931624212378644</v>
       </c>
       <c r="L4" t="n">
-        <v>1.103814279343388</v>
+        <v>1.234589480293837</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6834941140085905</v>
+        <v>0.5538175738862376</v>
       </c>
       <c r="N4" t="n">
-        <v>1.02941537041718</v>
+        <v>1.019312488107885</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7125918734698036</v>
+        <v>0.5773947345669977</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5221489376032</v>
+        <v>164.3636797419056</v>
       </c>
       <c r="Q4" t="n">
-        <v>262.2510907519274</v>
+        <v>263.0926215562298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_5</t>
+          <t>model_21_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9287340139965338</v>
+        <v>0.9537462450313052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7792292008109724</v>
+        <v>0.8072099069434868</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9173951003946956</v>
+        <v>0.9671480881443473</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9333995359992064</v>
+        <v>0.8331123496973858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9319700814310256</v>
+        <v>0.949387686955527</v>
       </c>
       <c r="G5" t="n">
-        <v>0.476555976554871</v>
+        <v>0.3092990724546199</v>
       </c>
       <c r="H5" t="n">
-        <v>1.476295350733086</v>
+        <v>1.289188239985656</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9036853761877014</v>
+        <v>0.4287579145272588</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3599221100452114</v>
+        <v>0.3508752652084579</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6318037821994711</v>
+        <v>0.3898165151862293</v>
       </c>
       <c r="L5" t="n">
-        <v>1.109387468125179</v>
+        <v>1.241439449303618</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6903303387182624</v>
+        <v>0.5561466285563726</v>
       </c>
       <c r="N5" t="n">
-        <v>1.030006730948828</v>
+        <v>1.019475265249977</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7197191304183023</v>
+        <v>0.5798229419162482</v>
       </c>
       <c r="P5" t="n">
-        <v>163.4823401767612</v>
+        <v>164.3468931962982</v>
       </c>
       <c r="Q5" t="n">
-        <v>262.2112819910854</v>
+        <v>263.0758350106224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_9</t>
+          <t>model_21_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9305332785282154</v>
+        <v>0.9533442656306254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7791747613614202</v>
+        <v>0.8066362256486931</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9205153670531899</v>
+        <v>0.9668754792014073</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9164927281724323</v>
+        <v>0.8379007985880464</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9288888132045463</v>
+        <v>0.9498102720767925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4645242863466645</v>
+        <v>0.3119871105579116</v>
       </c>
       <c r="H6" t="n">
-        <v>1.476659387582911</v>
+        <v>1.293024449445502</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8695501207420744</v>
+        <v>0.4323157970142824</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4512898510727955</v>
+        <v>0.3408077241327633</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6604199699064557</v>
+        <v>0.3865617605735229</v>
       </c>
       <c r="L6" t="n">
-        <v>1.101988803010846</v>
+        <v>1.248405819190681</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6815601854177402</v>
+        <v>0.5585580637300939</v>
       </c>
       <c r="N6" t="n">
-        <v>1.029249145882857</v>
+        <v>1.019644519734473</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7105756135350567</v>
+        <v>0.5823370368776737</v>
       </c>
       <c r="P6" t="n">
-        <v>163.5334828743444</v>
+        <v>164.3295868086808</v>
       </c>
       <c r="Q6" t="n">
-        <v>262.2624246886687</v>
+        <v>263.0585286230051</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_4</t>
+          <t>model_21_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9281872597392824</v>
+        <v>0.9529265385588239</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7791431493315635</v>
+        <v>0.8060499562942988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9165888246663962</v>
+        <v>0.9666007424548727</v>
       </c>
       <c r="E7" t="n">
-        <v>0.937242167539921</v>
+        <v>0.8426136679546253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9326132317469383</v>
+        <v>0.9502207483894322</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4802121247906827</v>
+        <v>0.3147804534105037</v>
       </c>
       <c r="H7" t="n">
-        <v>1.476870777372123</v>
+        <v>1.296944835317859</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9125059133267897</v>
+        <v>0.4359014499591004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3391557674527068</v>
+        <v>0.3308990862803357</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6258307513526898</v>
+        <v>0.383400268119718</v>
       </c>
       <c r="L7" t="n">
-        <v>1.111280735881641</v>
+        <v>1.255485638620322</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6929733939991367</v>
+        <v>0.5610529862771463</v>
       </c>
       <c r="N7" t="n">
-        <v>1.030236943267671</v>
+        <v>1.019820404817337</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7224747060343619</v>
+        <v>0.5849381734427558</v>
       </c>
       <c r="P7" t="n">
-        <v>163.4670546921075</v>
+        <v>164.3117597129106</v>
       </c>
       <c r="Q7" t="n">
-        <v>262.1959965064318</v>
+        <v>263.0407015272348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_10</t>
+          <t>model_21_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9308938699816214</v>
+        <v>0.9524928498197046</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7790708341425494</v>
+        <v>0.8054507882376533</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9212712059580745</v>
+        <v>0.9663241040701712</v>
       </c>
       <c r="E8" t="n">
-        <v>0.911925726954362</v>
+        <v>0.8472491112131836</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9280052131043106</v>
+        <v>0.9506190457817446</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4621130096373675</v>
+        <v>0.3176805320059474</v>
       </c>
       <c r="H8" t="n">
-        <v>1.477354349374042</v>
+        <v>1.300951474871562</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8612813549865125</v>
+        <v>0.4395119216243102</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4759708309976101</v>
+        <v>0.3211532340273012</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6686260929920613</v>
+        <v>0.3803325778258057</v>
       </c>
       <c r="L8" t="n">
-        <v>1.100181313037945</v>
+        <v>1.26267556576965</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6797889449214127</v>
+        <v>0.5636315569642525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.029097317902475</v>
+        <v>1.02000301060223</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7087289676638272</v>
+        <v>0.5876265192223894</v>
       </c>
       <c r="P8" t="n">
-        <v>163.5438916164155</v>
+        <v>164.2934180350013</v>
       </c>
       <c r="Q8" t="n">
-        <v>262.2728334307398</v>
+        <v>263.0223598493256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_3</t>
+          <t>model_21_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9275984149750923</v>
+        <v>0.9520428791788038</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7790132736102694</v>
+        <v>0.8048384357730075</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9157707272067908</v>
+        <v>0.9660456339940624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9409130433107724</v>
+        <v>0.8518057785009624</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9331994276891596</v>
+        <v>0.9510050392768392</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4841497324402026</v>
+        <v>0.3206894877535759</v>
       </c>
       <c r="H9" t="n">
-        <v>1.47773925691844</v>
+        <v>1.305046278622272</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9214557784567537</v>
+        <v>0.4431462991185419</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3193176270886558</v>
+        <v>0.3115730054114211</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6203866640864393</v>
+        <v>0.3773596522649815</v>
       </c>
       <c r="L9" t="n">
-        <v>1.113195743041976</v>
+        <v>1.26997440695132</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6958086895405968</v>
+        <v>0.5662945238597809</v>
       </c>
       <c r="N9" t="n">
-        <v>1.030484877905224</v>
+        <v>1.020192471924714</v>
       </c>
       <c r="O9" t="n">
-        <v>0.725430705976893</v>
+        <v>0.5904028541317617</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4507221111259</v>
+        <v>164.2745639037723</v>
       </c>
       <c r="Q9" t="n">
-        <v>262.1796639254502</v>
+        <v>263.0035057180965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_11</t>
+          <t>model_21_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9312216403570404</v>
+        <v>0.9515763201457162</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7789343068817227</v>
+        <v>0.804212529154114</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9220176538620396</v>
+        <v>0.9657653788865859</v>
       </c>
       <c r="E10" t="n">
-        <v>0.907239315521626</v>
+        <v>0.8562814329605692</v>
       </c>
       <c r="F10" t="n">
-        <v>0.92708133590574</v>
+        <v>0.9513784543818098</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4599212076276971</v>
+        <v>0.323809370156139</v>
       </c>
       <c r="H10" t="n">
-        <v>1.47826730779584</v>
+        <v>1.309231719064848</v>
       </c>
       <c r="I10" t="n">
-        <v>0.853115325391147</v>
+        <v>0.4468039734708055</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5012971273938375</v>
+        <v>0.3021631033446809</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6772062753680393</v>
+        <v>0.3744836055842144</v>
       </c>
       <c r="L10" t="n">
-        <v>1.098385898661774</v>
+        <v>1.277382417335896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6781749093174246</v>
+        <v>0.5690425029434436</v>
       </c>
       <c r="N10" t="n">
-        <v>1.028959309323351</v>
+        <v>1.020388917833383</v>
       </c>
       <c r="O10" t="n">
-        <v>0.707046219222663</v>
+        <v>0.5932678203741168</v>
       </c>
       <c r="P10" t="n">
-        <v>163.5534001838726</v>
+        <v>164.2552006001186</v>
       </c>
       <c r="Q10" t="n">
-        <v>262.2823419981968</v>
+        <v>262.9841424144428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_2</t>
+          <t>model_21_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9269658417913621</v>
+        <v>0.9510928513164191</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7788374659433427</v>
+        <v>0.8035728413860754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9149407420387037</v>
+        <v>0.9654833682324809</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9444028326559217</v>
+        <v>0.8606749165262048</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9337259336252706</v>
+        <v>0.951739184181663</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4883797522325384</v>
+        <v>0.3270423284438182</v>
       </c>
       <c r="H11" t="n">
-        <v>1.478914883596698</v>
+        <v>1.313509314115213</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9305356933581322</v>
+        <v>0.4504845598689364</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3004581136668802</v>
+        <v>0.2929259626186531</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6154969266182383</v>
+        <v>0.3717052612437948</v>
       </c>
       <c r="L11" t="n">
-        <v>1.115138168799243</v>
+        <v>1.284901614903039</v>
       </c>
       <c r="M11" t="n">
-        <v>0.698841721874516</v>
+        <v>0.5718761478185799</v>
       </c>
       <c r="N11" t="n">
-        <v>1.0307512245089</v>
+        <v>1.020592483656245</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7285928607765095</v>
+        <v>0.5962220993780413</v>
       </c>
       <c r="P11" t="n">
-        <v>163.4333239899006</v>
+        <v>164.2353313433596</v>
       </c>
       <c r="Q11" t="n">
-        <v>262.1622658042248</v>
+        <v>262.9642731576839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_21_8_1</t>
+          <t>model_21_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9262879210890285</v>
+        <v>0.9505922808252163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7786136134373152</v>
+        <v>0.8029190318518585</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9140977067688876</v>
+        <v>0.9651997572077683</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9477028866524556</v>
+        <v>0.864983926345787</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9341895679437955</v>
+        <v>0.9520870286585104</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4929130110905812</v>
+        <v>0.3303896456234066</v>
       </c>
       <c r="H12" t="n">
-        <v>1.480411786335251</v>
+        <v>1.317881341481038</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9397583744410147</v>
+        <v>0.4541860330747286</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2826239676813285</v>
+        <v>0.2838664248967774</v>
       </c>
       <c r="K12" t="n">
-        <v>0.611191087038194</v>
+        <v>0.3690261597834001</v>
       </c>
       <c r="L12" t="n">
-        <v>1.117099911458607</v>
+        <v>1.292520262371353</v>
       </c>
       <c r="M12" t="n">
-        <v>0.702077638933602</v>
+        <v>0.5747953075864543</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03103666480462</v>
+        <v>1.020803250178856</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7319665375240726</v>
+        <v>0.5992655338207279</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4148451372007</v>
+        <v>164.2149651534772</v>
       </c>
       <c r="Q12" t="n">
-        <v>262.143786951525</v>
+        <v>262.9439069678014</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
+          <t>model_21_8_13</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9500741530485431</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8022507231536317</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9649147298248454</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8692076537283645</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.952422005992055</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.3338543684517792</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.322350324823359</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.4579059914997398</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.2749861904226096</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3664461611827834</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.300247093588982</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5778013226462702</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.021021409242719</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.6023995211649492</v>
+      </c>
+      <c r="P13" t="n">
+        <v>164.1941008073808</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>262.923042621705</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9495383177299018</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8015676172402284</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9646283173244451</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8733439407461963</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9527439024269492</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3374375016948286</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.3269182572117</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.4616440274139285</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2662897961613905</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3639669117876595</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.308308362362214</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.580893709463985</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.021247024113725</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6056235572916172</v>
+      </c>
+      <c r="P14" t="n">
+        <v>164.172749931962</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>262.9016917462862</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_11</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9489843162436812</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8008694074787222</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9643406579929582</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8773917670531751</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.953052650143114</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3411421121841283</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.331587189101853</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.4653983360095605</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2577793873540065</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3615889339489203</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.316521518571823</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5840737215319042</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.021480287897397</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6089389490568002</v>
+      </c>
+      <c r="P15" t="n">
+        <v>164.1509122744844</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>262.8798540888087</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_10</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9484119479271342</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8001557520261917</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9640517685171617</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8813491836985153</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9533480307298344</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.344969541752391</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.336359406399006</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4691686995036429</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2494590615991871</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3593139098679652</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.324838231547719</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5873410778690615</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.021721285083312</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6123454035175905</v>
+      </c>
+      <c r="P16" t="n">
+        <v>164.1285983012476</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>262.8575401155718</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_9</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9478208524664741</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7994263158326204</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9637618285229349</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8852151361030264</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9536300357101503</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3489221998195698</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.341237149584162</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.4729527735572011</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2413310361116425</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.3571419048344219</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.333252058786174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5906963685511956</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.021970167382537</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6158435358704721</v>
+      </c>
+      <c r="P17" t="n">
+        <v>164.1058126095677</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>262.834754423892</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_8</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9472107003742692</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7986808332130975</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9634709764740759</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8889877015042873</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9538985179289229</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.353002289669636</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.346222195293543</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.4767487510471166</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2333993534300095</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.355074052238563</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.341759600613726</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.5941399579809761</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.022227073526623</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6194337260314913</v>
+      </c>
+      <c r="P18" t="n">
+        <v>164.0825614715073</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>262.8115032858315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_7</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.946581201092449</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7979188925627243</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9631792712103125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8926655200095527</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9541533454360797</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3572117542657453</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.351317295931003</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.4805558640424685</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2256668726797347</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3531113683611016</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.350364956734372</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.5976719453561002</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.022492125855811</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6231160774213963</v>
+      </c>
+      <c r="P19" t="n">
+        <v>164.0588530476844</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>262.7877948620086</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9459319542664822</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7971401863192027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9628868092000403</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8962469283190992</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9543943729451019</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3615532707804916</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.356524508167045</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.4843728535118704</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2181370908884917</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.351254972200181</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.359063861905478</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.601292999111491</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.022765492940429</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6268912869317688</v>
+      </c>
+      <c r="P20" t="n">
+        <v>164.0346917757023</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>262.7636335900265</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_5</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9452626709356309</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7963443459609514</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9625936901063903</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8997303132241776</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9546214647130646</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3660287714956613</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.361846296307178</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4881984187287055</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2108133997694888</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3495059092490972</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.367852116991296</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6050031169305339</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.023047296448155</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6307593521473708</v>
+      </c>
+      <c r="P21" t="n">
+        <v>164.0100866760531</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>262.7390284903773</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9445729471390452</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7955310572031317</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9622999638409881</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9031142140138378</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9548344760302703</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.370640957699316</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.36728476197557</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4920319082847801</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2036988704148113</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3478652940633155</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.376732136506394</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6088028890366044</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.02333770646777</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6347208884186093</v>
+      </c>
+      <c r="P22" t="n">
+        <v>163.98504290794</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>262.7139847222642</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9438625381160629</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7946999096137605</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9620059502076636</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9063974867624944</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9550334846071349</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3753914661071314</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.372842649732778</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.4958691483462024</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.1967959078867413</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.3463325281164719</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.385703363927889</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6126919830609271</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.023636826056395</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6387755492270819</v>
+      </c>
+      <c r="P23" t="n">
+        <v>163.9595717757749</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>262.6885135900991</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9431309417418497</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7938506000922967</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9617115547753162</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9095779298387582</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9552181470544505</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3802836544301859</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.378521986413517</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.4997113713551466</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.1901091410358633</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.344910256195505</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.39475859180309</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6166714315015621</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.023944866635011</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6429244110264287</v>
+      </c>
+      <c r="P24" t="n">
+        <v>163.9336756913937</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>262.662617505718</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_21_8_1</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9423779389175357</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7929827530019889</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9614169287579328</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9126542569891914</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9553884035601877</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3853189877836328</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.384325283902473</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.50355660378283</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.1836412741636351</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3435989389732325</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.403899136555073</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6207406767593314</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.024261920455774</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6471668924793202</v>
+      </c>
+      <c r="P25" t="n">
+        <v>163.9073674960923</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>262.6363093104166</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
           <t>model_21_8_0</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.9255627798957614</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7783394935403588</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9132408116610636</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9508037290513742</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9345870578379784</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.497762033588926</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.482244827348404</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9491326801004524</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.2658664006601268</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.6074995403802896</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.119089843542012</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.7055225252172506</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.031341987412311</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.7355580797487138</v>
-      </c>
-      <c r="P13" t="n">
-        <v>163.3952663207207</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>262.1242081350449</v>
+      <c r="B26" t="n">
+        <v>0.9416029714447045</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7920959563627835</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9611221258482714</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9156248438710121</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.955544071416515</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3905011988428525</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.390255297112163</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.5074041448726277</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1773957223921676</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3423999836671061</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.413122061374825</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6249009512257543</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.024588222549598</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6515042784427341</v>
+      </c>
+      <c r="P26" t="n">
+        <v>163.880648479374</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>262.6095902936982</v>
       </c>
     </row>
   </sheetData>
